--- a/benchmarks/compiled_benchmarks.xlsx
+++ b/benchmarks/compiled_benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joonas\Documents\Yliopisto\Scalable-Systems-and-Data-Management-Project-CS-E4780\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB107C2D-0498-4765-8D05-289CB7AF2400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8BEB21-7D1F-4626-A123-931A75496CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Joonas PC</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Luan laptop</t>
+  </si>
+  <si>
+    <t>Messages_per_second</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -118,48 +128,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}" name="Table1" displayName="Table1" ref="A2:E17" totalsRowShown="0">
-  <autoFilter ref="A2:E17" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}" name="Table1" displayName="Table1" ref="A2:F17" totalsRowShown="0">
+  <autoFilter ref="A2:F17" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CCEC4A68-3782-44B9-9C5F-876DB4C8923E}" name="workers"/>
     <tableColumn id="2" xr3:uid="{C45DAD5F-C225-4011-A947-4700F4032C9F}" name="simulators"/>
     <tableColumn id="3" xr3:uid="{F392C65C-D41C-4EAE-9A86-3A43A9EA08AD}" name="events"/>
     <tableColumn id="4" xr3:uid="{FA27454D-9057-4CF1-969C-9F45CDDA6C56}" name="events_percentage">
-      <calculatedColumnFormula>C3/(B3*$S$2) * 100</calculatedColumnFormula>
+      <calculatedColumnFormula>C3/(B3*$V$2) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{DC2A8159-639B-4C29-86F4-5FFA71B02A4E}" name="latency"/>
+    <tableColumn id="6" xr3:uid="{20B13B07-7188-4288-A5EE-2040615B6A5F}" name="Messages_per_second" dataDxfId="1">
+      <calculatedColumnFormula>B3*1000000*3 / 300</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE90AA53-0523-49A7-AEF1-92DBE6CDE110}" name="Table2" displayName="Table2" ref="G2:K22" totalsRowShown="0">
-  <autoFilter ref="G2:K22" xr:uid="{FE90AA53-0523-49A7-AEF1-92DBE6CDE110}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE90AA53-0523-49A7-AEF1-92DBE6CDE110}" name="Table2" displayName="Table2" ref="H2:M22" totalsRowShown="0">
+  <autoFilter ref="H2:M22" xr:uid="{FE90AA53-0523-49A7-AEF1-92DBE6CDE110}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6B15D70F-3872-4520-80A2-4681F3FD0917}" name="workers"/>
     <tableColumn id="2" xr3:uid="{8F8A57CF-97D5-4F12-80F6-E2B7BF59DE86}" name="simulators"/>
     <tableColumn id="3" xr3:uid="{36108E73-215A-4C55-AAA5-387026B51159}" name="events"/>
     <tableColumn id="4" xr3:uid="{5605A464-D98A-40DE-BFD2-46CB8296EABC}" name="events_percentage">
-      <calculatedColumnFormula>I3/(H3*$S$2) * 100</calculatedColumnFormula>
+      <calculatedColumnFormula>J3/(I3*$V$2) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{CD645A99-9C76-4AE2-A112-9AE3CC68ABD8}" name="latency"/>
+    <tableColumn id="6" xr3:uid="{5CADFE77-65AE-4521-B355-5897C59C26F3}" name="Messages_per_second" dataDxfId="0">
+      <calculatedColumnFormula>I3*1000000*3 / 300</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF5E628-066B-4A8E-BC96-29EDE94C93C5}" name="Table3" displayName="Table3" ref="M2:Q17" totalsRowShown="0">
-  <autoFilter ref="M2:Q17" xr:uid="{4EF5E628-066B-4A8E-BC96-29EDE94C93C5}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EF5E628-066B-4A8E-BC96-29EDE94C93C5}" name="Table3" displayName="Table3" ref="O2:T17" totalsRowShown="0">
+  <autoFilter ref="O2:T17" xr:uid="{4EF5E628-066B-4A8E-BC96-29EDE94C93C5}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CAA8B1A0-9ECC-4A33-9E2F-7CEC1A8203DF}" name="workers"/>
     <tableColumn id="2" xr3:uid="{99853473-CE9D-40E5-845B-12AB0D3204C3}" name="simulators"/>
     <tableColumn id="3" xr3:uid="{027A90E0-AF38-4518-B2C5-7BEC1058C481}" name="events"/>
     <tableColumn id="4" xr3:uid="{319CCE17-707B-4028-B0AE-B3C51AE80006}" name="events_percentage">
-      <calculatedColumnFormula>O3/(N3*$S$2) * 100</calculatedColumnFormula>
+      <calculatedColumnFormula>Q3/(P3*$V$2) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{7969A7F7-EF87-4286-A1E1-1DC660123657}" name="latency"/>
+    <tableColumn id="6" xr3:uid="{3AF15C0D-8B01-4B6E-B78C-5E771EE14501}" name="Messages_per_second">
+      <calculatedColumnFormula>P3*1000000*3 / 300</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,48 +501,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568AEB-71B0-4754-9C06-117CF1C56E6B}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -539,42 +563,51 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2">
         <f>899994</f>
         <v>899994</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -585,46 +618,58 @@
         <v>899994</v>
       </c>
       <c r="D3">
-        <f>C3/(B3*$S$2) * 100</f>
+        <f>C3/(B3*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E3">
         <v>552</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="0">B3*1000000*3 / 300</f>
+        <v>10000</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>899994</v>
       </c>
-      <c r="J3">
-        <f>I3/(H3*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K3">
+        <f>J3/(I3*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L3">
         <v>508</v>
       </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
+        <f t="shared" ref="M3:M22" si="1">I3*1000000*3 / 300</f>
+        <v>10000</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>899994</v>
       </c>
-      <c r="P3">
-        <f>O3/(N3*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <f>Q3/(P3*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S3">
         <v>526</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <f t="shared" ref="T3:T17" si="2">P3*1000000*3 / 300</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -635,46 +680,58 @@
         <v>899994</v>
       </c>
       <c r="D4">
-        <f>C4/(B4*$S$2) * 100</f>
+        <f>C4/(B4*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E4">
         <v>540</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>899994</v>
       </c>
-      <c r="J4">
-        <f>I4/(H4*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K4">
+        <f>J4/(I4*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L4">
         <v>551</v>
       </c>
       <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
       <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>899994</v>
       </c>
-      <c r="P4">
-        <f>O4/(N4*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <f>Q4/(P4*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S4">
         <v>521</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -685,46 +742,58 @@
         <v>899994</v>
       </c>
       <c r="D5">
-        <f>C5/(B5*$S$2) * 100</f>
+        <f>C5/(B5*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E5">
         <v>521</v>
       </c>
-      <c r="G5">
-        <v>3</v>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>899994</v>
       </c>
-      <c r="J5">
-        <f>I5/(H5*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K5">
+        <f>J5/(I5*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L5">
         <v>473</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
       <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>899994</v>
       </c>
-      <c r="P5">
-        <f>O5/(N5*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
+        <f>Q5/(P5*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S5">
         <v>535</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -735,46 +804,58 @@
         <v>1799988</v>
       </c>
       <c r="D6">
-        <f>C6/(B6*$S$2) * 100</f>
+        <f>C6/(B6*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E6">
         <v>585</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>1799988</v>
       </c>
-      <c r="J6">
-        <f>I6/(H6*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K6">
+        <f>J6/(I6*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L6">
         <v>502</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
         <v>1799988</v>
       </c>
-      <c r="P6">
-        <f>O6/(N6*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q6">
+      <c r="R6">
+        <f>Q6/(P6*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S6">
         <v>557</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -785,46 +866,58 @@
         <v>1799988</v>
       </c>
       <c r="D7">
-        <f>C7/(B7*$S$2) * 100</f>
+        <f>C7/(B7*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E7">
         <v>566</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>1799988</v>
       </c>
-      <c r="J7">
-        <f>I7/(H7*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K7">
+        <f>J7/(I7*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L7">
         <v>477</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
       <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>1799988</v>
       </c>
-      <c r="P7">
-        <f>O7/(N7*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q7">
+      <c r="R7">
+        <f>Q7/(P7*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S7">
         <v>527</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -835,46 +928,58 @@
         <v>1799988</v>
       </c>
       <c r="D8">
-        <f>C8/(B8*$S$2) * 100</f>
+        <f>C8/(B8*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E8">
         <v>538</v>
       </c>
-      <c r="G8">
-        <v>3</v>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
         <v>1799988</v>
       </c>
-      <c r="J8">
-        <f>I8/(H8*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K8">
+        <f>J8/(I8*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L8">
         <v>517</v>
       </c>
       <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
       <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
         <v>1799988</v>
       </c>
-      <c r="P8">
-        <f>O8/(N8*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q8">
+      <c r="R8">
+        <f>Q8/(P8*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S8">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -885,46 +990,58 @@
         <v>1646560</v>
       </c>
       <c r="D9">
-        <f>C9/(B9*$S$2) * 100</f>
+        <f>C9/(B9*$V$2) * 100</f>
         <v>60.984110264438797</v>
       </c>
       <c r="E9">
         <v>1480</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>2699982</v>
       </c>
-      <c r="J9">
-        <f>I9/(H9*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K9">
+        <f>J9/(I9*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L9">
         <v>525</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
         <v>2024287</v>
       </c>
-      <c r="P9">
-        <f>O9/(N9*$S$2) * 100</f>
+      <c r="R9">
+        <f>Q9/(P9*$V$2) * 100</f>
         <v>74.97409241987539</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>1450</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -935,46 +1052,58 @@
         <v>2376571</v>
       </c>
       <c r="D10">
-        <f>C10/(B10*$S$2) * 100</f>
+        <f>C10/(B10*$V$2) * 100</f>
         <v>88.02173495971455</v>
       </c>
       <c r="E10">
         <v>1630</v>
       </c>
-      <c r="G10">
-        <v>2</v>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>2699982</v>
       </c>
-      <c r="J10">
-        <f>I10/(H10*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K10">
+        <f>J10/(I10*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L10">
         <v>542</v>
       </c>
       <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
       <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
         <v>2699982</v>
       </c>
-      <c r="P10">
-        <f>O10/(N10*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q10">
+      <c r="R10">
+        <f>Q10/(P10*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S10">
         <v>530</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -985,46 +1114,58 @@
         <v>2699982</v>
       </c>
       <c r="D11">
-        <f>C11/(B11*$S$2) * 100</f>
+        <f>C11/(B11*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E11">
         <v>716</v>
       </c>
-      <c r="G11">
-        <v>3</v>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>2699982</v>
       </c>
-      <c r="J11">
-        <f>I11/(H11*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K11">
+        <f>J11/(I11*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>516</v>
       </c>
       <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
       <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
         <v>2699982</v>
       </c>
-      <c r="P11">
-        <f>O11/(N11*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q11">
+      <c r="R11">
+        <f>Q11/(P11*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S11">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1035,46 +1176,58 @@
         <v>1609225</v>
       </c>
       <c r="D12">
-        <f>C12/(B12*$S$2) * 100</f>
+        <f>C12/(B12*$V$2) * 100</f>
         <v>44.700992451060785</v>
       </c>
       <c r="E12">
         <v>1330</v>
       </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3599976</v>
       </c>
-      <c r="J12">
-        <f>I12/(H12*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K12">
+        <f>J12/(I12*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L12">
         <v>528</v>
       </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1804176</v>
       </c>
-      <c r="P12">
-        <f>O12/(N12*$S$2) * 100</f>
+      <c r="R12">
+        <f>Q12/(P12*$V$2) * 100</f>
         <v>50.116334108894058</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1085,46 +1238,58 @@
         <v>2528755</v>
       </c>
       <c r="D13">
-        <f>C13/(B13*$S$2) * 100</f>
+        <f>C13/(B13*$V$2) * 100</f>
         <v>70.243662735529341</v>
       </c>
       <c r="E13">
         <v>1490</v>
       </c>
-      <c r="G13">
-        <v>2</v>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3599976</v>
       </c>
-      <c r="J13">
-        <f>I13/(H13*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K13">
+        <f>J13/(I13*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L13">
         <v>504</v>
       </c>
       <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
         <v>4</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>3343420</v>
       </c>
-      <c r="P13">
-        <f>O13/(N13*$S$2) * 100</f>
+      <c r="R13">
+        <f>Q13/(P13*$V$2) * 100</f>
         <v>92.873396933757334</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>1260</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1135,46 +1300,58 @@
         <v>3217078</v>
       </c>
       <c r="D14">
-        <f>C14/(B14*$S$2) * 100</f>
+        <f>C14/(B14*$V$2) * 100</f>
         <v>89.36387353693469</v>
       </c>
       <c r="E14">
         <v>1540</v>
       </c>
-      <c r="G14">
-        <v>3</v>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3599976</v>
       </c>
-      <c r="J14">
-        <f>I14/(H14*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K14">
+        <f>J14/(I14*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L14">
         <v>504</v>
       </c>
       <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>3599976</v>
       </c>
-      <c r="P14">
-        <f>O14/(N14*$S$2) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="Q14">
+      <c r="R14">
+        <f>Q14/(P14*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S14">
         <v>532</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1185,46 +1362,58 @@
         <v>1838368</v>
       </c>
       <c r="D15">
-        <f>C15/(B15*$S$2) * 100</f>
+        <f>C15/(B15*$V$2) * 100</f>
         <v>40.852894574852719</v>
       </c>
       <c r="E15">
         <v>1330</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4499970</v>
       </c>
-      <c r="J15">
-        <f>I15/(H15*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K15">
+        <f>J15/(I15*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L15">
         <v>663</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1794472</v>
       </c>
-      <c r="P15">
-        <f>O15/(N15*$S$2) * 100</f>
+      <c r="R15">
+        <f>Q15/(P15*$V$2) * 100</f>
         <v>39.87742140503159</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>1100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1235,46 +1424,58 @@
         <v>2937143</v>
       </c>
       <c r="D16">
-        <f>C16/(B16*$S$2) * 100</f>
+        <f>C16/(B16*$V$2) * 100</f>
         <v>65.270279579641638</v>
       </c>
       <c r="E16">
         <v>1480</v>
       </c>
-      <c r="G16">
-        <v>2</v>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4499970</v>
       </c>
-      <c r="J16">
-        <f>I16/(H16*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K16">
+        <f>J16/(I16*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L16">
         <v>539</v>
       </c>
       <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>3398343</v>
       </c>
-      <c r="P16">
-        <f>O16/(N16*$S$2) * 100</f>
+      <c r="R16">
+        <f>Q16/(P16*$V$2) * 100</f>
         <v>75.519236794911976</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>1170</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1285,133 +1486,165 @@
         <v>3795566</v>
       </c>
       <c r="D17">
-        <f>C17/(B17*$S$2) * 100</f>
+        <f>C17/(B17*$V$2) * 100</f>
         <v>84.346473420933918</v>
       </c>
       <c r="E17">
         <v>1540</v>
       </c>
-      <c r="G17">
-        <v>3</v>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4499970</v>
       </c>
-      <c r="J17">
-        <f>I17/(H17*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K17">
+        <f>J17/(I17*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L17">
         <v>521</v>
       </c>
       <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
         <v>5</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>4169089</v>
       </c>
-      <c r="P17">
-        <f>O17/(N17*$S$2) * 100</f>
+      <c r="R17">
+        <f>Q17/(P17*$V$2) * 100</f>
         <v>92.647039869154682</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>1190</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <v>1</v>
-      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>6</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5104365</v>
       </c>
-      <c r="J18">
-        <f>I18/(H18*$S$2) * 100</f>
+      <c r="K18">
+        <f>J18/(I18*$V$2) * 100</f>
         <v>94.525907950497441</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>900</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>2</v>
-      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5399964</v>
       </c>
-      <c r="J19">
-        <f>I19/(H19*$S$2) * 100</f>
-        <v>100</v>
-      </c>
       <c r="K19">
+        <f>J19/(I19*$V$2) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="L19">
         <v>538</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <v>2</v>
-      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5988192</v>
       </c>
-      <c r="J20">
-        <f>I20/(H20*$S$2) * 100</f>
+      <c r="K20">
+        <f>J20/(I20*$V$2) * 100</f>
         <v>95.051300342002278</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>923</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>2</v>
-      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>6448528</v>
       </c>
-      <c r="J21">
-        <f>I21/(H21*$S$2) * 100</f>
+      <c r="K21">
+        <f>J21/(I21*$V$2) * 100</f>
         <v>89.563485978795413</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>850</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <v>3</v>
-      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>7</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6172881</v>
       </c>
-      <c r="J22">
-        <f>I22/(H22*$S$2) * 100</f>
+      <c r="K22">
+        <f>J22/(I22*$V$2) * 100</f>
         <v>97.982891314513523</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>768</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/compiled_benchmarks.xlsx
+++ b/benchmarks/compiled_benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joonas\Documents\Yliopisto\Scalable-Systems-and-Data-Management-Project-CS-E4780\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8BEB21-7D1F-4626-A123-931A75496CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8ABCD-95FD-4544-9B1F-C1ACE79963F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Joonas PC</t>
   </si>
@@ -67,12 +67,39 @@
   <si>
     <t>Messages_per_second</t>
   </si>
+  <si>
+    <t>grouped chart</t>
+  </si>
+  <si>
+    <t>joonas_pc_events_percentage</t>
+  </si>
+  <si>
+    <t>macbook_ari_events_percentage</t>
+  </si>
+  <si>
+    <t>luan_laptop_events_percentage</t>
+  </si>
+  <si>
+    <t>workers-simulators</t>
+  </si>
+  <si>
+    <t>Windows PC</t>
+  </si>
+  <si>
+    <t>Macbook Air M3</t>
+  </si>
+  <si>
+    <t>Windows Laptop</t>
+  </si>
+  <si>
+    <t>Eps - Workers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +107,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,17 +150,623 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00\ %"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -127,6 +786,3005 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="2000"/>
+              <a:t>Percentage of succesful</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="2000" baseline="0"/>
+              <a:t> packets</a:t>
+            </a:r>
+            <a:endParaRPr lang="fi-FI" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$32:$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$32:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8936387353693469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88021734959714548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84346473420933921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70243662735529344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65270279579641644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60984110264438796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44700992451060784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40852894574852722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C94B-4439-8DA0-7CB2C87AD657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macbook Air M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$32:$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$32:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97982891314513521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95051300342002276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94525907950497445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8956348597879541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C94B-4439-8DA0-7CB2C87AD657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$32:$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$32:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92647039869154679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92873396933757335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7551923679491197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74974092419875393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50116334108894056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39877421405031588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C94B-4439-8DA0-7CB2C87AD657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383629759"/>
+        <c:axId val="6290191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383629759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:t>Number of Workers</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600" baseline="0"/>
+                  <a:t> - Total events per second (Thousand)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6290191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6290191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:t>Events</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600" baseline="0"/>
+                  <a:t> succesfully processed (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383629759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="2000"/>
+              <a:t>Average latency of the last succesful</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="2000" baseline="0"/>
+              <a:t> packets from simulator to worker</a:t>
+            </a:r>
+            <a:endParaRPr lang="fi-FI" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$32:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D04-4979-BD26-6B940A6F5E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macbook Air M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$32:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D04-4979-BD26-6B940A6F5E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 W - 10K EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 W - 20K EPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1 W - 30K EPS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1 W - 40K EPS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1 W - 50K EPS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 W - 70K EPS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1 W - 60K EPS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2 W - 80K EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$32:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D04-4979-BD26-6B940A6F5E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383743711"/>
+        <c:axId val="383741311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383743711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:t>Number of Workers - Total events per second (Thousand)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383741311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383741311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:t>Latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383743711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>630585</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>70294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD680748-A98E-AD0D-A3B2-DF4586B034F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717467</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>796636</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E707DA-5DCD-9193-0FD3-B23FDFB40D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}" name="Table1" displayName="Table1" ref="A2:F17" totalsRowShown="0">
   <autoFilter ref="A2:F17" xr:uid="{5CA54E7E-0002-49E5-ADA3-8485CE68A938}"/>
@@ -138,7 +3796,7 @@
       <calculatedColumnFormula>C3/(B3*$V$2) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{DC2A8159-639B-4C29-86F4-5FFA71B02A4E}" name="latency"/>
-    <tableColumn id="6" xr3:uid="{20B13B07-7188-4288-A5EE-2040615B6A5F}" name="Messages_per_second" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{20B13B07-7188-4288-A5EE-2040615B6A5F}" name="Messages_per_second" dataDxfId="25">
       <calculatedColumnFormula>B3*1000000*3 / 300</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -157,7 +3815,7 @@
       <calculatedColumnFormula>J3/(I3*$V$2) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{CD645A99-9C76-4AE2-A112-9AE3CC68ABD8}" name="latency"/>
-    <tableColumn id="6" xr3:uid="{5CADFE77-65AE-4521-B355-5897C59C26F3}" name="Messages_per_second" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{5CADFE77-65AE-4521-B355-5897C59C26F3}" name="Messages_per_second" dataDxfId="24">
       <calculatedColumnFormula>I3*1000000*3 / 300</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -179,6 +3837,53 @@
     <tableColumn id="6" xr3:uid="{3AF15C0D-8B01-4B6E-B78C-5E771EE14501}" name="Messages_per_second">
       <calculatedColumnFormula>P3*1000000*3 / 300</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{951448D6-9016-41F5-90AD-DA4C6D16A9D8}" name="Table4" displayName="Table4" ref="A31:J51" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A31:J51" xr:uid="{951448D6-9016-41F5-90AD-DA4C6D16A9D8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:I51">
+    <sortCondition descending="1" ref="E31:E51"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{54CFFA4E-D7F8-43F8-A087-9FE683FFA4E1}" name="workers" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{22AC35ED-7B93-433E-BFBC-17AE5F920AB9}" name="simulators" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{09E7AC7E-11F8-43C8-9173-FEF9A72E624D}" name="workers-simulators" dataDxfId="16">
+      <calculatedColumnFormula>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D3D02D35-C0D0-452D-B6C6-8F27274759A3}" name="joonas_pc_events_percentage" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{07F3D8B3-95C8-4565-BBD6-ED272C4F84FC}" name="macbook_ari_events_percentage" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{BF49AE55-E8BC-4C44-A446-2B44D9C3D787}" name="luan_laptop_events_percentage" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{C798A492-A401-46FA-85A8-6573BF5BE041}" name="Windows PC" dataDxfId="12">
+      <calculatedColumnFormula>Table4[[#This Row],[joonas_pc_events_percentage]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B125D8D7-22D7-4FEC-A9F2-E1BFB81DF3D1}" name="Macbook Air M3" dataDxfId="11">
+      <calculatedColumnFormula>Table4[[#This Row],[macbook_ari_events_percentage]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{21AC7657-6A9E-476B-8730-8690F30A83B5}" name="Windows Laptop" dataDxfId="10">
+      <calculatedColumnFormula>Table4[[#This Row],[luan_laptop_events_percentage]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A010647D-270B-42C8-8EFF-66035C9E8321}" name="Eps - Workers" dataDxfId="9">
+      <calculatedColumnFormula>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{824B9852-9F7B-474B-819A-2F676DA54CF0}" name="Table5" displayName="Table5" ref="L31:O51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="L31:O51" xr:uid="{824B9852-9F7B-474B-819A-2F676DA54CF0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8C7FFAC2-33A8-4BE7-A675-9775EF345987}" name="Eps - Workers" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{61D35594-3923-4027-BE11-4C86E9479D71}" name="Windows PC" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5F194EEC-BE8D-4A56-893F-EBB19ED50088}" name="Macbook Air M3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BD3546E2-6382-4764-B723-75ADABE8AECA}" name="Windows Laptop" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,29 +4206,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568AEB-71B0-4754-9C06-117CF1C56E6B}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -1647,12 +5352,996 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 1 S</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100</v>
+      </c>
+      <c r="G32" s="5">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 10K EPS</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 10K EPS</v>
+      </c>
+      <c r="M32">
+        <v>552</v>
+      </c>
+      <c r="N32">
+        <v>508</v>
+      </c>
+      <c r="O32">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 1 S</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 10K EPS</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 10K EPS</v>
+      </c>
+      <c r="M33">
+        <v>540</v>
+      </c>
+      <c r="N33">
+        <v>551</v>
+      </c>
+      <c r="O33">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 1 S</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 10K EPS</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 10K EPS</v>
+      </c>
+      <c r="M34">
+        <v>521</v>
+      </c>
+      <c r="N34">
+        <v>473</v>
+      </c>
+      <c r="O34">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 2 S</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 20K EPS</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 20K EPS</v>
+      </c>
+      <c r="M35">
+        <v>585</v>
+      </c>
+      <c r="N35">
+        <v>502</v>
+      </c>
+      <c r="O35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 2 S</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 20K EPS</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 20K EPS</v>
+      </c>
+      <c r="M36">
+        <v>566</v>
+      </c>
+      <c r="N36">
+        <v>477</v>
+      </c>
+      <c r="O36">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 2 S</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 20K EPS</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 20K EPS</v>
+      </c>
+      <c r="M37">
+        <v>538</v>
+      </c>
+      <c r="N37">
+        <v>517</v>
+      </c>
+      <c r="O37">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 3 S</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 30K EPS</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 30K EPS</v>
+      </c>
+      <c r="M38">
+        <v>716</v>
+      </c>
+      <c r="N38">
+        <v>516</v>
+      </c>
+      <c r="O38">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 4 S</v>
+      </c>
+      <c r="D39" s="1">
+        <v>89.36387353693469</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.8936387353693469</v>
+      </c>
+      <c r="H39" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 40K EPS</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 40K EPS</v>
+      </c>
+      <c r="M39">
+        <v>1540</v>
+      </c>
+      <c r="N39">
+        <v>504</v>
+      </c>
+      <c r="O39">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 3 S</v>
+      </c>
+      <c r="D40" s="1">
+        <v>88.02173495971455</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.88021734959714548</v>
+      </c>
+      <c r="H40" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 30K EPS</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 30K EPS</v>
+      </c>
+      <c r="M40">
+        <v>1630</v>
+      </c>
+      <c r="N40">
+        <v>542</v>
+      </c>
+      <c r="O40">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 5 S</v>
+      </c>
+      <c r="D41" s="1">
+        <v>84.346473420933918</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>92.647039869154682</v>
+      </c>
+      <c r="G41" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.84346473420933921</v>
+      </c>
+      <c r="H41" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.92647039869154679</v>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 50K EPS</v>
+      </c>
+      <c r="L41" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 50K EPS</v>
+      </c>
+      <c r="M41">
+        <v>1540</v>
+      </c>
+      <c r="N41">
+        <v>521</v>
+      </c>
+      <c r="O41">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 4 S</v>
+      </c>
+      <c r="D42" s="1">
+        <v>70.243662735529341</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>92.873396933757334</v>
+      </c>
+      <c r="G42" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.70243662735529344</v>
+      </c>
+      <c r="H42" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.92873396933757335</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 40K EPS</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 40K EPS</v>
+      </c>
+      <c r="M42">
+        <v>1490</v>
+      </c>
+      <c r="N42">
+        <v>504</v>
+      </c>
+      <c r="O42">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 5 S</v>
+      </c>
+      <c r="D43" s="1">
+        <v>65.270279579641638</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>75.519236794911976</v>
+      </c>
+      <c r="G43" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.65270279579641644</v>
+      </c>
+      <c r="H43" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.7551923679491197</v>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 50K EPS</v>
+      </c>
+      <c r="L43" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 50K EPS</v>
+      </c>
+      <c r="M43">
+        <v>1480</v>
+      </c>
+      <c r="N43">
+        <v>539</v>
+      </c>
+      <c r="O43">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 3 S</v>
+      </c>
+      <c r="D44" s="1">
+        <v>60.984110264438797</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>74.97409241987539</v>
+      </c>
+      <c r="G44" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.60984110264438796</v>
+      </c>
+      <c r="H44" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.74974092419875393</v>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 30K EPS</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 30K EPS</v>
+      </c>
+      <c r="M44">
+        <v>1480</v>
+      </c>
+      <c r="N44">
+        <v>525</v>
+      </c>
+      <c r="O44">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 4 S</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44.700992451060785</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>50.116334108894058</v>
+      </c>
+      <c r="G45" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.44700992451060784</v>
+      </c>
+      <c r="H45" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.50116334108894056</v>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 40K EPS</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 40K EPS</v>
+      </c>
+      <c r="M45">
+        <v>1330</v>
+      </c>
+      <c r="N45">
+        <v>528</v>
+      </c>
+      <c r="O45">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 5 S</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40.852894574852719</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1">
+        <v>39.87742140503159</v>
+      </c>
+      <c r="G46" s="6">
+        <f>Table4[[#This Row],[joonas_pc_events_percentage]]/100</f>
+        <v>0.40852894574852722</v>
+      </c>
+      <c r="H46" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <f>Table4[[#This Row],[luan_laptop_events_percentage]]/100</f>
+        <v>0.39877421405031588</v>
+      </c>
+      <c r="J46" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 50K EPS</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 50K EPS</v>
+      </c>
+      <c r="M46">
+        <v>1330</v>
+      </c>
+      <c r="N46">
+        <v>663</v>
+      </c>
+      <c r="O46">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 6 S</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 60K EPS</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 60K EPS</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47">
+        <v>538</v>
+      </c>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>3 W - 7 S</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>97.982891314513523</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>0.97982891314513521</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 70K EPS</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>3 W - 70K EPS</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48">
+        <v>768</v>
+      </c>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 7 S</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>95.051300342002278</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>0.95051300342002276</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 70K EPS</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 70K EPS</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49">
+        <v>923</v>
+      </c>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>1 W - 6 S</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>94.525907950497441</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>0.94525907950497445</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 60K EPS</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>1 W - 60K EPS</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50">
+        <v>900</v>
+      </c>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] &amp; " S"</f>
+        <v>2 W - 8 S</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>89.563485978795413</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7">
+        <f>Table4[[#This Row],[macbook_ari_events_percentage]]/100</f>
+        <v>0.8956348597879541</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 80K EPS</v>
+      </c>
+      <c r="L51" s="10" t="str">
+        <f>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</f>
+        <v>2 W - 80K EPS</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51">
+        <v>850</v>
+      </c>
+      <c r="O51" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/benchmarks/compiled_benchmarks.xlsx
+++ b/benchmarks/compiled_benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joonas\Documents\Yliopisto\Scalable-Systems-and-Data-Management-Project-CS-E4780\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8ABCD-95FD-4544-9B1F-C1ACE79963F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5073838-3762-4425-9531-DBE78C263982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
   </bookViews>
@@ -809,10 +809,7 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -820,14 +817,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI" sz="2000"/>
+              <a:rPr lang="fi-FI" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Percentage of succesful</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fi-FI" sz="2000" baseline="0"/>
+              <a:rPr lang="fi-FI" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> packets</a:t>
             </a:r>
-            <a:endParaRPr lang="fi-FI" sz="2000"/>
+            <a:endParaRPr lang="fi-FI" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -846,10 +855,7 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1426,10 +1432,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1437,14 +1440,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:rPr lang="fi-FI" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number of Workers</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600" baseline="0"/>
+                  <a:rPr lang="fi-FI" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> - Total events per second (Thousand)</a:t>
                 </a:r>
-                <a:endParaRPr lang="fi-FI" sz="1600"/>
+                <a:endParaRPr lang="fi-FI" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1463,10 +1478,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1501,10 +1513,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1553,10 +1562,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1564,14 +1570,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:rPr lang="fi-FI" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Events</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600" baseline="0"/>
+                  <a:rPr lang="fi-FI" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> succesfully processed (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="fi-FI" sz="1600"/>
+                <a:endParaRPr lang="fi-FI" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1590,10 +1608,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1622,10 +1637,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1746,10 +1758,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1757,14 +1766,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI" sz="2000"/>
+              <a:rPr lang="fi-FI" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average latency of the last succesful</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fi-FI" sz="2000" baseline="0"/>
+              <a:rPr lang="fi-FI" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> packets from simulator to worker</a:t>
             </a:r>
-            <a:endParaRPr lang="fi-FI" sz="2000"/>
+            <a:endParaRPr lang="fi-FI" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1783,10 +1804,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2325,10 +2343,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2336,7 +2351,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:rPr lang="fi-FI" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number of Workers - Total events per second (Thousand)</a:t>
                 </a:r>
               </a:p>
@@ -2357,10 +2376,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2395,10 +2411,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2445,10 +2458,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2456,7 +2466,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600"/>
+                  <a:rPr lang="fi-FI" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency (ms)</a:t>
                 </a:r>
               </a:p>
@@ -2477,10 +2491,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2509,10 +2520,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4208,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568AEB-71B0-4754-9C06-117CF1C56E6B}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/benchmarks/compiled_benchmarks.xlsx
+++ b/benchmarks/compiled_benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joonas\Documents\Yliopisto\Scalable-Systems-and-Data-Management-Project-CS-E4780\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5073838-3762-4425-9531-DBE78C263982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D06F00-EADE-4798-B813-5FCB325272D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
+    <workbookView xWindow="9570" yWindow="0" windowWidth="20970" windowHeight="11085" xr2:uid="{2FA3B4F8-90A2-4D90-A3A2-612E125FA6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,52 +185,21 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -326,6 +295,82 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -347,51 +392,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -707,13 +707,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -742,6 +735,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1389,7 +1389,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1430,7 +1429,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1440,7 +1439,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600">
+                  <a:rPr lang="fi-FI" sz="2000">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1448,14 +1447,14 @@
                   <a:t>Number of Workers</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600" baseline="0">
+                  <a:rPr lang="fi-FI" sz="2000" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> - Total events per second (Thousand)</a:t>
                 </a:r>
-                <a:endParaRPr lang="fi-FI" sz="1600">
+                <a:endParaRPr lang="fi-FI" sz="2000">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1476,7 +1475,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1507,11 +1506,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1560,7 +1559,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1570,7 +1569,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600">
+                  <a:rPr lang="fi-FI" sz="2000">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1578,14 +1577,14 @@
                   <a:t>Events</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600" baseline="0">
+                  <a:rPr lang="fi-FI" sz="2000" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> succesfully processed (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="fi-FI" sz="1600">
+                <a:endParaRPr lang="fi-FI" sz="2000">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1606,7 +1605,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1635,7 +1634,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1675,7 +1674,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1730,7 +1729,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1779,7 +1778,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> packets from simulator to worker</a:t>
+              <a:t> packets from Exchange gateway to Worker</a:t>
             </a:r>
             <a:endParaRPr lang="fi-FI" sz="2000">
               <a:solidFill>
@@ -2341,7 +2340,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2351,7 +2350,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600">
+                  <a:rPr lang="fi-FI" sz="2000">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2374,7 +2373,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2405,11 +2404,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2456,7 +2455,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2466,7 +2465,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fi-FI" sz="1600">
+                  <a:rPr lang="fi-FI" sz="2000">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2489,7 +2488,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2518,7 +2517,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2557,7 +2556,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2612,7 +2611,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3851,7 +3850,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{951448D6-9016-41F5-90AD-DA4C6D16A9D8}" name="Table4" displayName="Table4" ref="A31:J51" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{951448D6-9016-41F5-90AD-DA4C6D16A9D8}" name="Table4" displayName="Table4" ref="A31:J51" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A31:J51" xr:uid="{951448D6-9016-41F5-90AD-DA4C6D16A9D8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:I51">
     <sortCondition descending="1" ref="E31:E51"/>
@@ -3883,15 +3882,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{824B9852-9F7B-474B-819A-2F676DA54CF0}" name="Table5" displayName="Table5" ref="L31:O51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{824B9852-9F7B-474B-819A-2F676DA54CF0}" name="Table5" displayName="Table5" ref="L31:O51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="L31:O51" xr:uid="{824B9852-9F7B-474B-819A-2F676DA54CF0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C7FFAC2-33A8-4BE7-A675-9775EF345987}" name="Eps - Workers" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{8C7FFAC2-33A8-4BE7-A675-9775EF345987}" name="Eps - Workers" dataDxfId="3">
       <calculatedColumnFormula>Table4[[#This Row],[workers]] &amp; " W - " &amp; Table4[[#This Row],[simulators]] * 10 &amp; "K EPS"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{61D35594-3923-4027-BE11-4C86E9479D71}" name="Windows PC" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5F194EEC-BE8D-4A56-893F-EBB19ED50088}" name="Macbook Air M3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BD3546E2-6382-4764-B723-75ADABE8AECA}" name="Windows Laptop" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{61D35594-3923-4027-BE11-4C86E9479D71}" name="Windows PC" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5F194EEC-BE8D-4A56-893F-EBB19ED50088}" name="Macbook Air M3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BD3546E2-6382-4764-B723-75ADABE8AECA}" name="Windows Laptop" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4216,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568AEB-71B0-4754-9C06-117CF1C56E6B}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,14 +4330,14 @@
         <v>899994</v>
       </c>
       <c r="D3">
-        <f>C3/(B3*$V$2) * 100</f>
+        <f t="shared" ref="D3:D17" si="0">C3/(B3*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="E3">
         <v>552</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">B3*1000000*3 / 300</f>
+        <f t="shared" ref="F3:F17" si="1">B3*1000000*3 / 300</f>
         <v>10000</v>
       </c>
       <c r="H3">
@@ -4351,14 +4350,14 @@
         <v>899994</v>
       </c>
       <c r="K3">
-        <f>J3/(I3*$V$2) * 100</f>
+        <f t="shared" ref="K3:K22" si="2">J3/(I3*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="L3">
         <v>508</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M22" si="1">I3*1000000*3 / 300</f>
+        <f t="shared" ref="M3:M22" si="3">I3*1000000*3 / 300</f>
         <v>10000</v>
       </c>
       <c r="O3">
@@ -4371,14 +4370,14 @@
         <v>899994</v>
       </c>
       <c r="R3">
-        <f>Q3/(P3*$V$2) * 100</f>
+        <f t="shared" ref="R3:R17" si="4">Q3/(P3*$V$2) * 100</f>
         <v>100</v>
       </c>
       <c r="S3">
         <v>526</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T17" si="2">P3*1000000*3 / 300</f>
+        <f t="shared" ref="T3:T17" si="5">P3*1000000*3 / 300</f>
         <v>10000</v>
       </c>
     </row>
@@ -4393,14 +4392,14 @@
         <v>899994</v>
       </c>
       <c r="D4">
-        <f>C4/(B4*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4">
         <v>540</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="H4">
@@ -4413,14 +4412,14 @@
         <v>899994</v>
       </c>
       <c r="K4">
-        <f>J4/(I4*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L4">
         <v>551</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="O4">
@@ -4433,14 +4432,14 @@
         <v>899994</v>
       </c>
       <c r="R4">
-        <f>Q4/(P4*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S4">
         <v>521</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
@@ -4455,14 +4454,14 @@
         <v>899994</v>
       </c>
       <c r="D5">
-        <f>C5/(B5*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5">
         <v>521</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="H5">
@@ -4475,14 +4474,14 @@
         <v>899994</v>
       </c>
       <c r="K5">
-        <f>J5/(I5*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L5">
         <v>473</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="O5">
@@ -4495,14 +4494,14 @@
         <v>899994</v>
       </c>
       <c r="R5">
-        <f>Q5/(P5*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S5">
         <v>535</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
@@ -4517,14 +4516,14 @@
         <v>1799988</v>
       </c>
       <c r="D6">
-        <f>C6/(B6*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E6">
         <v>585</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H6">
@@ -4537,14 +4536,14 @@
         <v>1799988</v>
       </c>
       <c r="K6">
-        <f>J6/(I6*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L6">
         <v>502</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="O6">
@@ -4557,14 +4556,14 @@
         <v>1799988</v>
       </c>
       <c r="R6">
-        <f>Q6/(P6*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S6">
         <v>557</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
     </row>
@@ -4579,14 +4578,14 @@
         <v>1799988</v>
       </c>
       <c r="D7">
-        <f>C7/(B7*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E7">
         <v>566</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H7">
@@ -4599,14 +4598,14 @@
         <v>1799988</v>
       </c>
       <c r="K7">
-        <f>J7/(I7*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L7">
         <v>477</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="O7">
@@ -4619,14 +4618,14 @@
         <v>1799988</v>
       </c>
       <c r="R7">
-        <f>Q7/(P7*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S7">
         <v>527</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
     </row>
@@ -4641,14 +4640,14 @@
         <v>1799988</v>
       </c>
       <c r="D8">
-        <f>C8/(B8*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E8">
         <v>538</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H8">
@@ -4661,14 +4660,14 @@
         <v>1799988</v>
       </c>
       <c r="K8">
-        <f>J8/(I8*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L8">
         <v>517</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="O8">
@@ -4681,14 +4680,14 @@
         <v>1799988</v>
       </c>
       <c r="R8">
-        <f>Q8/(P8*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S8">
         <v>525</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
     </row>
@@ -4703,14 +4702,14 @@
         <v>1646560</v>
       </c>
       <c r="D9">
-        <f>C9/(B9*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>60.984110264438797</v>
       </c>
       <c r="E9">
         <v>1480</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="H9">
@@ -4723,14 +4722,14 @@
         <v>2699982</v>
       </c>
       <c r="K9">
-        <f>J9/(I9*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L9">
         <v>525</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="O9">
@@ -4743,14 +4742,14 @@
         <v>2024287</v>
       </c>
       <c r="R9">
-        <f>Q9/(P9*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>74.97409241987539</v>
       </c>
       <c r="S9">
         <v>1450</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -4765,14 +4764,14 @@
         <v>2376571</v>
       </c>
       <c r="D10">
-        <f>C10/(B10*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>88.02173495971455</v>
       </c>
       <c r="E10">
         <v>1630</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="H10">
@@ -4785,14 +4784,14 @@
         <v>2699982</v>
       </c>
       <c r="K10">
-        <f>J10/(I10*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L10">
         <v>542</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="O10">
@@ -4805,14 +4804,14 @@
         <v>2699982</v>
       </c>
       <c r="R10">
-        <f>Q10/(P10*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S10">
         <v>530</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -4827,14 +4826,14 @@
         <v>2699982</v>
       </c>
       <c r="D11">
-        <f>C11/(B11*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E11">
         <v>716</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="H11">
@@ -4847,14 +4846,14 @@
         <v>2699982</v>
       </c>
       <c r="K11">
-        <f>J11/(I11*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L11">
         <v>516</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="O11">
@@ -4867,14 +4866,14 @@
         <v>2699982</v>
       </c>
       <c r="R11">
-        <f>Q11/(P11*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S11">
         <v>525</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -4889,14 +4888,14 @@
         <v>1609225</v>
       </c>
       <c r="D12">
-        <f>C12/(B12*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>44.700992451060785</v>
       </c>
       <c r="E12">
         <v>1330</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="H12">
@@ -4909,14 +4908,14 @@
         <v>3599976</v>
       </c>
       <c r="K12">
-        <f>J12/(I12*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L12">
         <v>528</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="O12">
@@ -4929,14 +4928,14 @@
         <v>1804176</v>
       </c>
       <c r="R12">
-        <f>Q12/(P12*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>50.116334108894058</v>
       </c>
       <c r="S12">
         <v>1100</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
@@ -4951,14 +4950,14 @@
         <v>2528755</v>
       </c>
       <c r="D13">
-        <f>C13/(B13*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>70.243662735529341</v>
       </c>
       <c r="E13">
         <v>1490</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="H13">
@@ -4971,14 +4970,14 @@
         <v>3599976</v>
       </c>
       <c r="K13">
-        <f>J13/(I13*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L13">
         <v>504</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="O13">
@@ -4991,14 +4990,14 @@
         <v>3343420</v>
       </c>
       <c r="R13">
-        <f>Q13/(P13*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>92.873396933757334</v>
       </c>
       <c r="S13">
         <v>1260</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
@@ -5013,14 +5012,14 @@
         <v>3217078</v>
       </c>
       <c r="D14">
-        <f>C14/(B14*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>89.36387353693469</v>
       </c>
       <c r="E14">
         <v>1540</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="H14">
@@ -5033,14 +5032,14 @@
         <v>3599976</v>
       </c>
       <c r="K14">
-        <f>J14/(I14*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L14">
         <v>504</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="O14">
@@ -5053,14 +5052,14 @@
         <v>3599976</v>
       </c>
       <c r="R14">
-        <f>Q14/(P14*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S14">
         <v>532</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
@@ -5075,14 +5074,14 @@
         <v>1838368</v>
       </c>
       <c r="D15">
-        <f>C15/(B15*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>40.852894574852719</v>
       </c>
       <c r="E15">
         <v>1330</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H15">
@@ -5095,14 +5094,14 @@
         <v>4499970</v>
       </c>
       <c r="K15">
-        <f>J15/(I15*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L15">
         <v>663</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="O15">
@@ -5115,14 +5114,14 @@
         <v>1794472</v>
       </c>
       <c r="R15">
-        <f>Q15/(P15*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>39.87742140503159</v>
       </c>
       <c r="S15">
         <v>1100</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -5137,14 +5136,14 @@
         <v>2937143</v>
       </c>
       <c r="D16">
-        <f>C16/(B16*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>65.270279579641638</v>
       </c>
       <c r="E16">
         <v>1480</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H16">
@@ -5157,14 +5156,14 @@
         <v>4499970</v>
       </c>
       <c r="K16">
-        <f>J16/(I16*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L16">
         <v>539</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="O16">
@@ -5177,14 +5176,14 @@
         <v>3398343</v>
       </c>
       <c r="R16">
-        <f>Q16/(P16*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>75.519236794911976</v>
       </c>
       <c r="S16">
         <v>1170</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -5199,14 +5198,14 @@
         <v>3795566</v>
       </c>
       <c r="D17">
-        <f>C17/(B17*$V$2) * 100</f>
+        <f t="shared" si="0"/>
         <v>84.346473420933918</v>
       </c>
       <c r="E17">
         <v>1540</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H17">
@@ -5219,14 +5218,14 @@
         <v>4499970</v>
       </c>
       <c r="K17">
-        <f>J17/(I17*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L17">
         <v>521</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="O17">
@@ -5239,14 +5238,14 @@
         <v>4169089</v>
       </c>
       <c r="R17">
-        <f>Q17/(P17*$V$2) * 100</f>
+        <f t="shared" si="4"/>
         <v>92.647039869154682</v>
       </c>
       <c r="S17">
         <v>1190</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -5261,14 +5260,14 @@
         <v>5104365</v>
       </c>
       <c r="K18">
-        <f>J18/(I18*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>94.525907950497441</v>
       </c>
       <c r="L18">
         <v>900</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -5283,14 +5282,14 @@
         <v>5399964</v>
       </c>
       <c r="K19">
-        <f>J19/(I19*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L19">
         <v>538</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -5305,14 +5304,14 @@
         <v>5988192</v>
       </c>
       <c r="K20">
-        <f>J20/(I20*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>95.051300342002278</v>
       </c>
       <c r="L20">
         <v>923</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
@@ -5327,14 +5326,14 @@
         <v>6448528</v>
       </c>
       <c r="K21">
-        <f>J21/(I21*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>89.563485978795413</v>
       </c>
       <c r="L21">
         <v>850</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
@@ -5349,14 +5348,14 @@
         <v>6172881</v>
       </c>
       <c r="K22">
-        <f>J22/(I22*$V$2) * 100</f>
+        <f t="shared" si="2"/>
         <v>97.982891314513523</v>
       </c>
       <c r="L22">
         <v>768</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
